--- a/biology/Zoologie/Evarcha_falcata/Evarcha_falcata.xlsx
+++ b/biology/Zoologie/Evarcha_falcata/Evarcha_falcata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Evarcha falcata est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Evarcha falcata est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en zone paléarctique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en zone paléarctique.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 4,35 à 5,9 mm et les femelles de 5,0 à 7,7 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 4,35 à 5,9 mm et les femelles de 5,0 à 7,7 mm.
 C'est une araignée sauteuse diurne.
 Les deux yeux centraux de la face sont grands et donnent à cette araignée très vive une bonne capacité visuelle et de chasse.
-Elle est proche de Evarcha hoyi et de Evarcha proszinskii, avec des distributions différentes[3]
+Elle est proche de Evarcha hoyi et de Evarcha proszinskii, avec des distributions différentes
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Evarcha falcata falcata (Clerck, 1757)
 Evarcha falcata xinglongensis Yang &amp; Tang, 1996 de Chine</t>
@@ -607,7 +625,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Clerck, 1757 : Svenska spindlar, uti sina hufvud-slågter indelte samt under några och sextio särskildte arter beskrefne och med illuminerade figurer uplyste. Stockholmiae, p. 1-154.
 Yang &amp; Tang, 1996 : Three new species of family Salticidae from Gansu, China (Araneae). Journal of Lanzhou University Natural Sciences, vol. 32, p. 104-106.</t>
